--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/account_move_line.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/account_move_line.xlsx
@@ -52,10 +52,10 @@
     <t xml:space="preserve">accrual_end_date</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_1</t>
+    <t xml:space="preserve">z0bug.move_01_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_01</t>
   </si>
   <si>
     <t xml:space="preserve">Capitale sociale</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">z0bug.coa_180003</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_1_2</t>
+    <t xml:space="preserve">z0bug.move_01_2</t>
   </si>
   <si>
     <t xml:space="preserve">Costituzione società</t>
@@ -73,10 +73,10 @@
     <t xml:space="preserve">z0bug.coa_211010</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_2</t>
+    <t xml:space="preserve">z0bug.move_02_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_02</t>
   </si>
   <si>
     <t xml:space="preserve">Pag.RA</t>
@@ -91,16 +91,16 @@
     <t xml:space="preserve">z0bug.res_partner_10</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_2_2</t>
+    <t xml:space="preserve">z0bug.move_02_2</t>
   </si>
   <si>
     <t xml:space="preserve">RdA 1040-20% - Notaio Decimo Jackson </t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_3</t>
+    <t xml:space="preserve">z0bug.move_03_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_03</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 1.mo Trimestre 2020</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">z0bug.coa_630100</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_3_2</t>
+    <t xml:space="preserve">z0bug.move_03_2</t>
   </si>
   <si>
     <t xml:space="preserve">Spese condominiali 2020</t>
@@ -118,88 +118,88 @@
     <t xml:space="preserve">z0bug.coa_623100</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_3_3</t>
+    <t xml:space="preserve">z0bug.move_03_3</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 1.mo Trimestre + Spese</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_4</t>
+    <t xml:space="preserve">z0bug.move_04_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_04</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 2.do Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_4_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_5</t>
+    <t xml:space="preserve">z0bug.move_04_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_05_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_05</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 3.zo Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_6_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_6</t>
+    <t xml:space="preserve">z0bug.move_05_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_06_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_06</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 4.to Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_6_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_7_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_7</t>
+    <t xml:space="preserve">z0bug.move_06_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_07_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_07</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 1.mo Trimestre 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_7_2</t>
+    <t xml:space="preserve">z0bug.move_07_2</t>
   </si>
   <si>
     <t xml:space="preserve">Spese condominiali 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_7_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_8_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_8</t>
+    <t xml:space="preserve">z0bug.move_07_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_08_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_08</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 2.do Trimestre 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_8_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_9_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.move_9</t>
+    <t xml:space="preserve">z0bug.move_08_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_09_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.move_09</t>
   </si>
   <si>
     <t xml:space="preserve">Affitto 3.zo Trimestre 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.move_9_2</t>
+    <t xml:space="preserve">z0bug.move_09_2</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.move_10_1</t>
@@ -329,13 +329,13 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.64"/>

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/account_move_line.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/account_move_line.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Capitale sociale</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180003</t>
+    <t xml:space="preserve">external.180003</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.move_01_2</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Costituzione società</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_211010</t>
+    <t xml:space="preserve">external.211010</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.move_02_1</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Pag.RA</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_260110</t>
+    <t xml:space="preserve">external.260110</t>
   </si>
   <si>
     <t xml:space="preserve">RdA 1040-20% - Notaio Decimo Jackson</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Affitto 1.mo Trimestre 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_630100</t>
+    <t xml:space="preserve">external.630100</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.move_03_2</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Spese condominiali 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_623100</t>
+    <t xml:space="preserve">external.623100</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.move_03_3</t>
@@ -292,9 +292,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -302,7 +306,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -326,18 +338,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="D2:D23 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.54"/>
@@ -346,674 +358,553 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <v>12500</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>12500</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>510</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>480</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="E17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>521</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="E21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="E23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="n">
         <v>486</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>
